--- a/Elevetor/docs/tests.xlsx
+++ b/Elevetor/docs/tests.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\story\projects\AlgorithmCodeCollection\Elevetor\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\AlgorithmCodeCollection\Elevetor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D618F8E-7C67-4F00-864C-1345CB0A2145}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>humans</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expect avarage travel steps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expect avarage wait steps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,50 +78,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>elevator0 {7}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 human 2 elevators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>human0 {3, 5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevator0 {4}  elevator1 {5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevator0 {2}  elevator1 {4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevator0 {2}  elevator1 {5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 humans 2 elevators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevator0 {3}  elevator1 {5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>human0 {2, 4}  human1 {6, 5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>human0 {1, 4}  human1 {2, 8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>human0 {1, 4}  human1 {9, 5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>elevator0 {7}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 human 2 elevators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>human0 {3, 5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elevator0 {4}  elevator1 {5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elevator0 {2}  elevator1 {4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elevator0 {2}  elevator1 {5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 humans 2 elevators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elevator0 {3}  elevator1 {5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>human0 {2, 4}  human1 {1, 5}</t>
+    <t>human0 {9, 3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>human0 {1, 4}  human1 {2, 8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevator0 {1}  elevator1 {2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,17 +485,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
     <col min="3" max="3" width="38.5" customWidth="1"/>
     <col min="4" max="4" width="34.875" customWidth="1"/>
     <col min="5" max="5" width="26.25" customWidth="1"/>
@@ -473,10 +504,10 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -485,30 +516,30 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
       <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -516,16 +547,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -533,36 +564,36 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>3.5</v>
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -570,106 +601,158 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>12.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>8.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E18">
+        <v>5.5</v>
+      </c>
+      <c r="F18" t="s">
         <v>22</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
